--- a/doc/ue_callstack.xlsx
+++ b/doc/ue_callstack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5814F-0154-4470-91CF-8C58D20B6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B208C-741E-49E9-AB44-EE614612B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_callstack.xlsx
+++ b/doc/ue_callstack.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B208C-741E-49E9-AB44-EE614612B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91D254-ED18-433A-A621-C1AFE03E8AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="不同平台分析" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -663,7 +664,7 @@
   <dimension ref="A3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,4 +724,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A878CE8-FD2F-4945-A1E7-CA75D3CCFD0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_callstack.xlsx
+++ b/doc/ue_callstack.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91D254-ED18-433A-A621-C1AFE03E8AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBAB66-5AB6-46BB-81C4-47DBF5AFCBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="不同平台分析" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="IOS" sheetId="3" r:id="rId3"/>
+    <sheet name="Android" sheetId="4" r:id="rId4"/>
+    <sheet name="Windows" sheetId="5" r:id="rId5"/>
+    <sheet name="LINUX" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>UE在各平台下如何获取堆栈信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +150,45 @@
   </si>
   <si>
     <t>调用一次800纳秒？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层使用的是libc库：Bionic Libc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的是苹果自己的libc库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opensource.apple.com/source/Libc/</t>
+  </si>
+  <si>
+    <t>backtrace实现基本没有任何的消耗和副作用，不过就是需要自己通过地址在此找一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统的glibc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtrace第一次的时候会卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应backtrace依赖于unwind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该库获取堆栈信息耗时比较严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先每次都需要init，很耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后挨个获取IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308BA0D3-2DF3-4617-BDB9-90387885FFBC}">
   <dimension ref="A3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -728,6 +770,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A878CE8-FD2F-4945-A1E7-CA75D3CCFD0E}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3E0DD5-95E9-4065-A1DA-1793006CF33F}">
+  <dimension ref="B3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDCEBC5-38B6-454F-BBD1-9FAAB5B88B80}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -736,6 +858,31 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAC9009-68B0-404D-95A7-754D071A9014}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_callstack.xlsx
+++ b/doc/ue_callstack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBAB66-5AB6-46BB-81C4-47DBF5AFCBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B43F90-D629-4BA4-A35D-E0E330EF1182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>UE在各平台下如何获取堆栈信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,16 @@
   <si>
     <t>然后挨个获取IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAndroidCrashContext::DumpAllThreadCallstacks() const</t>
+  </si>
+  <si>
+    <t>可以参考这个实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dladdr</t>
   </si>
 </sst>
 </file>
@@ -802,10 +812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3E0DD5-95E9-4065-A1DA-1793006CF33F}">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,6 +849,21 @@
       </c>
       <c r="D8" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
